--- a/data/math_code_2022.xlsx
+++ b/data/math_code_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\연구프로젝트 관련\2022개정교육과정학습맵제작\07)최종본\(5단계작업)코딩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7BB38-50D7-42AE-BD75-A6C06D27459B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A7032-E660-4AED-9140-ECD8C97FB635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="3405" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="최종 코딩 양식" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10004,7 +10015,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="분류용"/>
@@ -15612,9 +15623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15652,7 +15663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -15758,7 +15769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15900,7 +15911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15910,7 +15921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
